--- a/jpcore-r4/feature/swg5-add_inj_comment_terminologies/CodeSystem-jp-medication-method-jhsi0003-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_inj_comment_terminologies/CodeSystem-jp-medication-method-jhsi0003-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:02:19+00:00</t>
+    <t>2022-08-26T06:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
